--- a/draft_results.xlsx
+++ b/draft_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>Round 12</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Round 13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Round 14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -503,60 +513,70 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bowser</t>
+          <t>Baby Daisy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wiggler</t>
+          <t>Light Blue Yoshi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brown Kritter</t>
+          <t>Frozone</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Purple Toad</t>
+          <t>Evie</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blue Kritter</t>
+          <t>Funky Kong</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Luigi</t>
+          <t>Tiny Kong</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Purple Mii Female</t>
+          <t>MJ Heehee</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Black Mii Male</t>
+          <t>Diddy Kong</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Black Mii Female</t>
+          <t>Dixie Kong</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Black Shy Guy</t>
+          <t>KevinG</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Red Koopa Paratroopa</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+          <t>Whoppie</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Yellow Yoshi</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -566,64 +586,70 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>King K Rool</t>
+          <t>Baby DK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>King Boo</t>
+          <t>Ice Cube</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Boomerang Bro</t>
+          <t>Beyonce</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Green Dry Bones</t>
+          <t>Donkey Kong</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Red Mii Male</t>
+          <t>Lil Wayne</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pink Mii Male</t>
+          <t>Goomba</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Blue Mii Female</t>
+          <t>Paragoomba</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Waluigi</t>
+          <t>Brown Kritter</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Light Blue Mii Female</t>
+          <t>Pink Yoshi</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Blue Shy Guy</t>
+          <t>Dwayne Wade</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Yellow Magikoopa</t>
+          <t>Miss Hot</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Baby Peach</t>
-        </is>
-      </c>
+          <t>Angelina</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>John 2.0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -633,64 +659,70 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Donkey Kong</t>
+          <t>Baby Luigi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dry Bones</t>
+          <t>Unc</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Green Mii Male</t>
+          <t>Lara Croft</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Blue Dry Bones</t>
+          <t>Green Dry Bones</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Red Mii Female</t>
+          <t>Koopa Troopa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Blue Mii Male</t>
+          <t>Queen</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Koopa Troopa</t>
+          <t>Koopa Paratroopa</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Red Koopa Troopa</t>
+          <t>Green Noki</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Orange Mii Female</t>
+          <t>King K Rool</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Koopa Paratroopa</t>
+          <t>Yoshi</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Noki</t>
+          <t>Kritter</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Toadsworth</t>
-        </is>
-      </c>
+          <t>Red Koopa Paratroopa</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Red Kritter</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -700,64 +732,70 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mario</t>
+          <t>Baby Mario</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hammer Bro</t>
+          <t>Blue Yoshi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Red Kritter</t>
+          <t>Minion</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Green Mii Female</t>
+          <t>Helly R</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>White Mii Male</t>
+          <t>Blue Dry Bones</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Brown Mii Male</t>
+          <t>Lilo</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Green Magikoopa</t>
+          <t>Blue Kritter</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Goomba</t>
+          <t>Noki</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Light Green Mii Female</t>
+          <t>Magikoopa</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Paragoomba</t>
+          <t>Wario</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Blue Yoshi</t>
+          <t>Red Koopa Troopa</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Baby Luigi</t>
-        </is>
-      </c>
+          <t>Dark Bones</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Borat</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -767,17 +805,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fire Bro</t>
+          <t>Baby Peach</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wario</t>
+          <t>Blue Toad</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Baby DK</t>
+          <t>Toadsworth</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -787,44 +825,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tiny Kong</t>
+          <t>Green Toad</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>Peach</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Purple Toad</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Toadette</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>Toad</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Dixie Kong</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Pink Yoshi</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Light Green Mii Male</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Red Yoshi</t>
+          <t>Red Pianta</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>Yellow Toad</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Yellow Pianta</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>Red Noki</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Baby Mario</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -834,62 +878,72 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Petey Piranha</t>
+          <t>Birdo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dark Bones</t>
+          <t>Blue Shy Guy</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Green Toad</t>
+          <t>Daisy</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Yellow Pianta</t>
+          <t>Green Shy Guy</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Light Blue Mii Male</t>
+          <t>Monty Mole</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Yellow Mii Male</t>
+          <t>Shy Guy</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Monty Mole</t>
+          <t>Yellow Shy Guy</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Peach</t>
+          <t>Luigi</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Shy Guy</t>
+          <t>Mario</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Green Shy Guy</t>
+          <t>Incredible</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Boo</t>
+          <t>Chicken</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Magikoopa</t>
+          <t>Red Yoshi</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Mikasa</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Trinity</t>
         </is>
       </c>
     </row>
@@ -901,62 +955,72 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Birdo</t>
+          <t>John K</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Funky Kong</t>
+          <t>Bowser</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Red Pianta</t>
+          <t>Bowser Jr</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Yellow Toad</t>
+          <t>Black Widow</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>White Mii Female</t>
+          <t>Snape</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Daisy</t>
+          <t>Boomerang Bro</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Yellow Mii Female</t>
+          <t>Fire Bro</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Orange Mii Male</t>
+          <t>Green Magikoopa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Yellow Yoshi</t>
+          <t>Hammer Bro</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Yellow Shy Guy</t>
+          <t>Red Magikoopa</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Toadette</t>
+          <t>Yellow Magikoopa</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Red Magikoopa</t>
+          <t>Caillou</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Mrs.Claus</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Dora</t>
         </is>
       </c>
     </row>
@@ -968,62 +1032,72 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kritter</t>
+          <t>Black Shy Guy</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bowser Jr</t>
+          <t>Boo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Blue Toad</t>
+          <t>Blooper</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Yoshi</t>
+          <t>Semenlad</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Brown Mii Female</t>
+          <t>Miss Casey</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pink Mii Female</t>
+          <t>King Boo</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Purple Mii Male</t>
+          <t>Capt Jack</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Diddy Kong</t>
+          <t>Dry Bones</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Light Blue Yoshi</t>
+          <t>Waluigi</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Blooper</t>
+          <t>Petey Piranha</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Green Noki</t>
+          <t>Wiggler</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Baby Daisy</t>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Lizzy</t>
         </is>
       </c>
     </row>
